--- a/downloaded_files/MDPS423_Tutorial-35685.xlsx
+++ b/downloaded_files/MDPS423_Tutorial-35685.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -235,6 +235,15 @@
   </x:si>
   <x:si>
     <x:t>Kareem Ashraf wagdy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريمان شريف رفاعى حسن رخا الاكوح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kariman Sherif Refaei Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210285</x:t>
@@ -512,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -812,7 +821,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1637,7 +1646,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6651860301</x:v>
+        <x:v>45922.917709294</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1669,7 +1678,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45906.6651860301</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1701,7 +1710,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4213034722</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1733,7 +1742,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4218548958</x:v>
+        <x:v>45907.4213034722</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1765,7 +1774,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45907.4218548958</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1797,7 +1806,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.0272797107</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1829,7 +1838,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45912.0272797107</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1861,7 +1870,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4261325231</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1893,7 +1902,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45907.4261325231</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1925,7 +1934,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4176709838</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1957,7 +1966,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.5476548611</x:v>
+        <x:v>45907.4176709838</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1989,7 +1998,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.4924418171</x:v>
+        <x:v>45914.5476548611</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2021,7 +2030,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.8830857639</x:v>
+        <x:v>45914.4924418171</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2053,7 +2062,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45909.8830857639</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2085,7 +2094,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4241967593</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2117,7 +2126,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.424921875</x:v>
+        <x:v>45907.4241967593</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2149,7 +2158,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.0264351042</x:v>
+        <x:v>45907.424921875</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2181,7 +2190,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6658141204</x:v>
+        <x:v>45912.0264351042</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2198,6 +2207,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45906.6658141204</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS423_Tutorial-35685.xlsx
+++ b/downloaded_files/MDPS423_Tutorial-35685.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>julie hazem shawky soliman Dawoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه حسين محمد احمد احمد بدر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>4220116</x:t>
@@ -521,7 +530,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -821,7 +830,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1164,9 +1173,11 @@
       <x:c r="C10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s"/>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45925.4104614236</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1189,16 +1200,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
+      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45912.0273647338</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1230,7 +1239,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4184486111</x:v>
+        <x:v>45912.0273647338</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1262,7 +1271,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4251980671</x:v>
+        <x:v>45907.4184486111</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1294,7 +1303,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4145228357</x:v>
+        <x:v>45907.4251980671</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1326,7 +1335,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4144978356</x:v>
+        <x:v>45907.4145228357</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1358,7 +1367,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4186534722</x:v>
+        <x:v>45907.4144978356</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1390,7 +1399,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4147183218</x:v>
+        <x:v>45907.4186534722</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1422,7 +1431,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6652276273</x:v>
+        <x:v>45907.4147183218</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1454,7 +1463,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45906.6652276273</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1486,7 +1495,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4144299769</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1518,7 +1527,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45907.4144299769</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1550,7 +1559,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4173905093</x:v>
+        <x:v>45906.6646825232</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1582,7 +1591,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6899656597</x:v>
+        <x:v>45907.4173905093</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1614,7 +1623,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6756164699</x:v>
+        <x:v>45906.6899656597</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1646,7 +1655,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45922.917709294</x:v>
+        <x:v>45906.6756164699</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1678,7 +1687,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6651860301</x:v>
+        <x:v>45922.917709294</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1710,7 +1719,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45906.6651860301</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1742,7 +1751,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4213034722</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1774,7 +1783,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4218548958</x:v>
+        <x:v>45907.4213034722</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1806,7 +1815,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45907.4218548958</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1838,7 +1847,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.0272797107</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1870,7 +1879,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45912.0272797107</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1902,7 +1911,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4261325231</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1934,7 +1943,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45907.4261325231</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1966,7 +1975,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4176709838</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1998,7 +2007,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.5476548611</x:v>
+        <x:v>45907.4176709838</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2030,7 +2039,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.4924418171</x:v>
+        <x:v>45914.5476548611</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2062,7 +2071,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.8830857639</x:v>
+        <x:v>45914.4924418171</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45909.8830857639</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2126,7 +2135,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4241967593</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2158,7 +2167,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.424921875</x:v>
+        <x:v>45907.4241967593</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2190,7 +2199,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.0264351042</x:v>
+        <x:v>45907.424921875</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2222,7 +2231,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6658141204</x:v>
+        <x:v>45912.0264351042</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2239,6 +2248,38 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45906.6658141204</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS423_Tutorial-35685.xlsx
+++ b/downloaded_files/MDPS423_Tutorial-35685.xlsx
@@ -1145,7 +1145,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.0266460648</x:v>
+        <x:v>45927.4533108449</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1815,7 +1815,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4218548958</x:v>
+        <x:v>45927.4323335648</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>

--- a/downloaded_files/MDPS423_Tutorial-35685.xlsx
+++ b/downloaded_files/MDPS423_Tutorial-35685.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -183,6 +183,15 @@
     <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
   </x:si>
   <x:si>
+    <x:t>1230075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام على شادي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam Ali shady</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210067</x:t>
   </x:si>
   <x:si>
@@ -300,15 +309,6 @@
     <x:t xml:space="preserve">  Mohamed Nehad Sayed Ahmed El kanawaty</x:t>
   </x:si>
   <x:si>
-    <x:t>1220314</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد وليد محمد جاد الكريم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed waleed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230111</x:t>
   </x:si>
   <x:si>
@@ -388,15 +388,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Khaled Fahmy Abdelfattah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عادل محمد حمزاوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hamzawi</x:t>
   </x:si>
   <x:si>
     <x:t>4230187</x:t>
@@ -530,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -830,7 +821,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1463,7 +1454,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6652276273</x:v>
+        <x:v>45929.536415162</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1495,7 +1486,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45906.6652276273</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1527,7 +1518,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4144299769</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1559,7 +1550,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45907.4144299769</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1591,7 +1582,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4173905093</x:v>
+        <x:v>45906.6646825232</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1623,7 +1614,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6899656597</x:v>
+        <x:v>45907.4173905093</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1655,7 +1646,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6756164699</x:v>
+        <x:v>45906.6899656597</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1687,7 +1678,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45922.917709294</x:v>
+        <x:v>45906.6756164699</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1719,7 +1710,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6651860301</x:v>
+        <x:v>45922.917709294</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1751,7 +1742,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45906.6651860301</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1783,7 +1774,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4213034722</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1815,7 +1806,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4323335648</x:v>
+        <x:v>45907.4213034722</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1847,7 +1838,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45927.4323335648</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1879,7 +1870,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.0272797107</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2199,7 +2190,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.424921875</x:v>
+        <x:v>45912.0264351042</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2231,7 +2222,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45912.0264351042</x:v>
+        <x:v>45906.6658141204</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2248,38 +2239,6 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45906.6658141204</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS423_Tutorial-35685.xlsx
+++ b/downloaded_files/MDPS423_Tutorial-35685.xlsx
@@ -108,10 +108,10 @@
     <x:t>1230028</x:t>
   </x:si>
   <x:si>
-    <x:t>حبيبه حسين محمد احمد احمد بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Hussein</x:t>
+    <x:t xml:space="preserve">حبيبه حسين محمد احمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>HABIBA HUSSEIN MOHAMED AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>4220116</x:t>
